--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2766.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2766.xlsx
@@ -354,7 +354,7 @@
         <v>2.424790606983862</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.370249565213352</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2766.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2766.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165080558059794</v>
+        <v>1.643745422363281</v>
       </c>
       <c r="B1">
-        <v>2.424790606983862</v>
+        <v>1.765841841697693</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.010205984115601</v>
       </c>
       <c r="D1">
-        <v>2.370249565213352</v>
+        <v>3.206500291824341</v>
       </c>
       <c r="E1">
-        <v>1.226507351837363</v>
+        <v>3.621964454650879</v>
       </c>
     </row>
   </sheetData>
